--- a/outputs-HGR-r202/g__Anaerotruncus_train.xlsx
+++ b/outputs-HGR-r202/g__Anaerotruncus_train.xlsx
@@ -6,9 +6,9 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="s__Anaerotruncus colihominis-b-p" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="s__Anaerotruncus massiliensis-b-p" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="s__Anaerotruncus rubiinfantis-b-p" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="s__Anaerotruncus massiliensis-b-p" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="s__Anaerotruncus rubiinfantis-b-p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="s__Anaerotruncus colihominis-b-p" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -503,1279 +503,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>Row</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_12.fasta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8992455212400672</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.375853402908533e-14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1007544787598391</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_14.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9809306737725605</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.735661626752608e-14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01906932622739226</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_18.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9827672351622996</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.219851064490665e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0172327648376782</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_21.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9646961163518113</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.219862939341601e-14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03530388364816649</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_24.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.96013193949381</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.21988721770269e-14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03986806050616776</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_25.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9747525194399856</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.874582700207757e-14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02524748055998555</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_28.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9762342578877273</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.377782031071212e-14</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.02376574211224891</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_29.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9160040695546208</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.21999292215657e-14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.08399593044535696</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_36.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5349142826191622</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.765601252513957e-12</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4650857173780723</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_37.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.3550943791895867</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.878025637744075e-12</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6449056208065354</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_39.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.08878754893412964</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.075295387591007e-10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9112124506583409</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_7.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.7793920992314384</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.310067679422122e-13</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2206079007682307</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_9.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8601333000159818</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.339868194128355e-14</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1398666999839748</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_0.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9980995728108226</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.219808045715311e-14</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.001900427189155227</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_3.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9981947756374553</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.21988944370648e-14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.001805224362522512</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_30.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.949693934412602</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.219901831840271e-14</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.05030606558737587</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_34.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.2787202076014263</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.220233900912286e-14</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.7212797923985514</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_11.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9989260737339986</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005368510550317373</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0005370752109696499</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_13.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.997398654611456</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.001300671424797124</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.00130067396374678</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_16.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9980451739290596</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6.201643480470688e-12</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.001954826064738868</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_17.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9966138078953733</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.234600811109501e-13</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.003386192104503178</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_22.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9988605743653859</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0005568633838118776</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0005825622508021638</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_23.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9689970227536899</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2.30345712491634e-13</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.03100297724607981</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_19.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9889771013377695</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5.888092394201347e-14</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0110228986621716</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_2.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9915632782798296</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.219821950030769e-14</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.008436721720148225</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_26.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.9944392227048721</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2.21981661412718e-14</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.005560777295105684</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_27.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.9972786403017403</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2.219812777449372e-14</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.002721359698237614</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_31.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.9311456304368437</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.53647072173758e-12</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.06885436956161979</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_32.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.2102554875521048</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.7581626110773514</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.03158190137054372</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_33.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.05032715292766491</v>
-      </c>
-      <c r="C31" t="n">
-        <v>8.591084272645664e-13</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.949672847071476</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_35.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.50404005012596</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2.455889247181647e-14</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.4959599498740155</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_4.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.9927744688086589</v>
-      </c>
-      <c r="C33" t="n">
-        <v>7.601851536581034e-13</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.007225531190580906</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_5.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.9934629853932017</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2.134700413979898e-13</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.00653701460658482</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_8.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.9918059693422437</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2.21982149054802e-14</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.008194030657733992</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_12.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.8992455212400672</v>
-      </c>
-      <c r="C36" t="n">
-        <v>9.375853402908533e-14</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1007544787598391</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_14.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.9809306737725605</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.735661626752608e-14</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.01906932622739226</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_18.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.9827672351622996</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2.219851064490665e-14</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.0172327648376782</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_21.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.9646961163518113</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.219862939341601e-14</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.03530388364816649</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_24.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.96013193949381</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.21988721770269e-14</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.03986806050616776</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_25.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.9747525194399856</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2.874582700207757e-14</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.02524748055998555</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_28.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.9762342578877273</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2.377782031071212e-14</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.02376574211224891</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_29.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.9160040695546208</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2.21999292215657e-14</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.08399593044535696</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_36.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5349142826191622</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.765601252513957e-12</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.4650857173780723</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_37.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.3550943791895867</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.878025637744075e-12</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.6449056208065354</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_39.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.08878754893412964</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4.075295387591007e-10</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.9112124506583409</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_7.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.7793920992314384</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3.310067679422122e-13</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.2206079007682307</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_9.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.8601333000159818</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4.339868194128355e-14</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.1398666999839748</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5513,7 +4240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6108,4 +4835,1183 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus massiliensis</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_12.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8992455212400672</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.375853402908533e-14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1007544787598391</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8992455212400672</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_14.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9809306737725605</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.735661626752608e-14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01906932622739226</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9809306737725605</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_18.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9827672351622996</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.219851064490665e-14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0172327648376782</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9827672351622996</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_21.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9646961163518113</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.219862939341601e-14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03530388364816649</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9646961163518113</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_24.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.96013193949381</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.21988721770269e-14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03986806050616776</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.96013193949381</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_25.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9747525194399856</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.874582700207757e-14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02524748055998555</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9747525194399856</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_28.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9762342578877273</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.377782031071212e-14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02376574211224891</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9762342578877273</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_29.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9160040695546208</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.21999292215657e-14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.08399593044535696</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9160040695546208</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_36.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5349142826191622</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.765601252513957e-12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4650857173780723</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5349142826191622</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_37.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3550943791895867</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.878025637744075e-12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6449056208065354</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6449056208065354</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_39.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.08878754893412964</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.075295387591007e-10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9112124506583409</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9112124506583409</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_7.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7793920992314384</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.310067679422122e-13</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2206079007682307</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7793920992314384</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_9.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8601333000159818</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.339868194128355e-14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1398666999839748</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8601333000159818</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_0.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9980995728108226</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.219808045715311e-14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.001900427189155227</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9980995728108226</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_3.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9981947756374553</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.21988944370648e-14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001805224362522512</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9981947756374553</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_30.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.949693934412602</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.219901831840271e-14</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.05030606558737587</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.949693934412602</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_34.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2787202076014263</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.220233900912286e-14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7212797923985514</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7212797923985514</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_11.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9989260737339986</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0005368510550317373</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0005370752109696499</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9989260737339986</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_13.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.997398654611456</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.001300671424797124</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.00130067396374678</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.997398654611456</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_16.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9980451739290596</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.201643480470688e-12</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.001954826064738868</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9980451739290596</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_17.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9966138078953733</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.234600811109501e-13</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.003386192104503178</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9966138078953733</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_22.fasta</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9988605743653859</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0005568633838118776</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0005825622508021638</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9988605743653859</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_23.fasta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9689970227536899</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.30345712491634e-13</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.03100297724607981</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9689970227536899</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_19.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9889771013377695</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.888092394201347e-14</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0110228986621716</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9889771013377695</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_2.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9915632782798296</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.219821950030769e-14</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.008436721720148225</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9915632782798296</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_26.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9944392227048721</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.21981661412718e-14</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.005560777295105684</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9944392227048721</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_27.fasta</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9972786403017403</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.219812777449372e-14</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.002721359698237614</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9972786403017403</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_31.fasta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9311456304368437</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.53647072173758e-12</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.06885436956161979</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9311456304368437</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_32.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2102554875521048</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7581626110773514</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.03158190137054372</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7581626110773514</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus massiliensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_33.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.05032715292766491</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.591084272645664e-13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.949672847071476</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.949672847071476</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_35.fasta</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.50404005012596</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.455889247181647e-14</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.4959599498740155</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.50404005012596</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_4.fasta</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9927744688086589</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7.601851536581034e-13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.007225531190580906</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9927744688086589</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_5.fasta</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9934629853932017</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.134700413979898e-13</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.00653701460658482</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9934629853932017</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_8.fasta</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9918059693422437</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.21982149054802e-14</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.008194030657733992</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9918059693422437</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_12.fasta</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8992455212400672</v>
+      </c>
+      <c r="C36" t="n">
+        <v>9.375853402908533e-14</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1007544787598391</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8992455212400672</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_14.fasta</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9809306737725605</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.735661626752608e-14</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.01906932622739226</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9809306737725605</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_18.fasta</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9827672351622996</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.219851064490665e-14</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0172327648376782</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9827672351622996</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_21.fasta</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9646961163518113</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.219862939341601e-14</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.03530388364816649</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9646961163518113</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_24.fasta</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.96013193949381</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.21988721770269e-14</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.03986806050616776</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.96013193949381</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_25.fasta</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9747525194399856</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.874582700207757e-14</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.02524748055998555</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9747525194399856</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_28.fasta</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9762342578877273</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.377782031071212e-14</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.02376574211224891</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9762342578877273</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_29.fasta</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9160040695546208</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.21999292215657e-14</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.08399593044535696</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9160040695546208</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_36.fasta</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5349142826191622</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.765601252513957e-12</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4650857173780723</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5349142826191622</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_37.fasta</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3550943791895867</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.878025637744075e-12</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6449056208065354</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6449056208065354</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_39.fasta</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.08878754893412964</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.075295387591007e-10</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9112124506583409</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9112124506583409</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_7.fasta</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7793920992314384</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.310067679422122e-13</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2206079007682307</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7793920992314384</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_9.fasta</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8601333000159818</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.339868194128355e-14</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.1398666999839748</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8601333000159818</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/outputs-HGR-r202/g__Anaerotruncus_train.xlsx
+++ b/outputs-HGR-r202/g__Anaerotruncus_train.xlsx
@@ -6,9 +6,9 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="s__Anaerotruncus massiliensis-b-p" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="s__Anaerotruncus rubiinfantis-b-p" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="s__Anaerotruncus colihominis-b-p" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="s__Anaerotruncus colihominis-b-p" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="s__Anaerotruncus massiliensis-b-p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="s__Anaerotruncus rubiinfantis-b-p" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -503,6 +503,1185 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus massiliensis</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_12.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8992455212400672</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.375853402908533e-14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1007544787598391</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8992455212400672</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_14.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9809306737725605</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.735661626752608e-14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01906932622739226</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9809306737725605</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_18.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9827672351622996</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.219851064490665e-14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0172327648376782</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9827672351622996</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_21.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9646961163518113</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.219862939341601e-14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03530388364816649</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9646961163518113</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_24.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.96013193949381</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.21988721770269e-14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03986806050616776</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.96013193949381</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_25.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9747525194399856</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.874582700207757e-14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02524748055998555</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9747525194399856</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_28.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9762342578877273</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.377782031071212e-14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02376574211224891</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9762342578877273</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_29.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9160040695546208</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.21999292215657e-14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.08399593044535696</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9160040695546208</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_36.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5349142826191622</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.765601252513957e-12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4650857173780723</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5349142826191622</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_37.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3550943791895867</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.878025637744075e-12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6449056208065354</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6449056208065354</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_39.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.08878754893412964</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.075295387591007e-10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9112124506583409</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9112124506583409</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_7.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7793920992314384</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.310067679422122e-13</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2206079007682307</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7793920992314384</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_9.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8601333000159818</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.339868194128355e-14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1398666999839748</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8601333000159818</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_0.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9980995728108226</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.219808045715311e-14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.001900427189155227</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9980995728108226</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_3.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9981947756374553</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.21988944370648e-14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001805224362522512</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9981947756374553</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_30.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.949693934412602</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.219901831840271e-14</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.05030606558737587</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.949693934412602</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_34.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2787202076014263</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.220233900912286e-14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7212797923985514</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7212797923985514</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_11.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9989260737339986</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0005368510550317373</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0005370752109696499</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9989260737339986</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_13.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.997398654611456</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.001300671424797124</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.00130067396374678</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.997398654611456</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_16.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9980451739290596</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.201643480470688e-12</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.001954826064738868</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9980451739290596</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_17.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9966138078953733</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.234600811109501e-13</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.003386192104503178</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9966138078953733</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_22.fasta</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9988605743653859</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0005568633838118776</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0005825622508021638</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9988605743653859</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_23.fasta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9689970227536899</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.30345712491634e-13</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.03100297724607981</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9689970227536899</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_19.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9889771013377695</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.888092394201347e-14</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0110228986621716</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9889771013377695</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_2.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9915632782798296</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.219821950030769e-14</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.008436721720148225</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9915632782798296</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_26.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9944392227048721</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.21981661412718e-14</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.005560777295105684</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9944392227048721</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_27.fasta</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9972786403017403</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.219812777449372e-14</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.002721359698237614</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9972786403017403</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_31.fasta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9311456304368437</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.53647072173758e-12</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.06885436956161979</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9311456304368437</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_32.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2102554875521048</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7581626110773514</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.03158190137054372</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7581626110773514</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus massiliensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_33.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.05032715292766491</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.591084272645664e-13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.949672847071476</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.949672847071476</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_35.fasta</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.50404005012596</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.455889247181647e-14</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.4959599498740155</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.50404005012596</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_4.fasta</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9927744688086589</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7.601851536581034e-13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.007225531190580906</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9927744688086589</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_5.fasta</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9934629853932017</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.134700413979898e-13</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.00653701460658482</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9934629853932017</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_8.fasta</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9918059693422437</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.21982149054802e-14</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.008194030657733992</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9918059693422437</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_12.fasta</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8992455212400672</v>
+      </c>
+      <c r="C36" t="n">
+        <v>9.375853402908533e-14</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1007544787598391</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8992455212400672</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_14.fasta</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9809306737725605</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.735661626752608e-14</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.01906932622739226</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9809306737725605</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_18.fasta</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9827672351622996</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.219851064490665e-14</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0172327648376782</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9827672351622996</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_21.fasta</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9646961163518113</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.219862939341601e-14</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.03530388364816649</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9646961163518113</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_24.fasta</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.96013193949381</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.21988721770269e-14</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.03986806050616776</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.96013193949381</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_25.fasta</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9747525194399856</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.874582700207757e-14</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.02524748055998555</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9747525194399856</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_28.fasta</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9762342578877273</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.377782031071212e-14</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.02376574211224891</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9762342578877273</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_29.fasta</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9160040695546208</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.21999292215657e-14</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.08399593044535696</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9160040695546208</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_36.fasta</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5349142826191622</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.765601252513957e-12</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4650857173780723</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5349142826191622</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_37.fasta</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3550943791895867</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.878025637744075e-12</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6449056208065354</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6449056208065354</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_39.fasta</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.08878754893412964</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.075295387591007e-10</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9112124506583409</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9112124506583409</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus rubiinfantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_7.fasta</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7793920992314384</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.310067679422122e-13</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2206079007682307</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7793920992314384</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_65_9.fasta</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8601333000159818</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.339868194128355e-14</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.1398666999839748</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8601333000159818</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>s__Anaerotruncus colihominis</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -534,12 +1713,12 @@
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -558,10 +1737,8 @@
       <c r="D2" t="n">
         <v>0.006200721135637927</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.9910306572964818</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -584,10 +1761,8 @@
       <c r="D3" t="n">
         <v>0.01060502458902768</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.9837518339657405</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -610,10 +1785,8 @@
       <c r="D4" t="n">
         <v>0.002363811138343348</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0.9966375328354065</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -636,10 +1809,8 @@
       <c r="D5" t="n">
         <v>0.003606855843130717</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0.9956509679753976</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -662,10 +1833,8 @@
       <c r="D6" t="n">
         <v>0.007196975297743671</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E6" t="n">
+        <v>0.9916135609920451</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -688,10 +1857,8 @@
       <c r="D7" t="n">
         <v>0.009748098705839852</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E7" t="n">
+        <v>0.9900676537381626</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -714,10 +1881,8 @@
       <c r="D8" t="n">
         <v>0.007520327452053664</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E8" t="n">
+        <v>0.9917891415682308</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -740,10 +1905,8 @@
       <c r="D9" t="n">
         <v>0.1676517191010408</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0.8246093784699345</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -766,10 +1929,8 @@
       <c r="D10" t="n">
         <v>0.02169235428132547</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0.9782195857976241</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -792,10 +1953,8 @@
       <c r="D11" t="n">
         <v>0.004271222482327246</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E11" t="n">
+        <v>0.9901291408821659</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -818,10 +1977,8 @@
       <c r="D12" t="n">
         <v>0.00377446865629496</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E12" t="n">
+        <v>0.9908996053980821</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -844,10 +2001,8 @@
       <c r="D13" t="n">
         <v>0.01103074570844261</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E13" t="n">
+        <v>0.9859787508550768</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -870,10 +2025,8 @@
       <c r="D14" t="n">
         <v>0.0188815892887288</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0.9791095785676922</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -896,10 +2049,8 @@
       <c r="D15" t="n">
         <v>0.005161871423783419</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.9905154275940197</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -922,10 +2073,8 @@
       <c r="D16" t="n">
         <v>0.008356264809582927</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E16" t="n">
+        <v>0.9866594605944103</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -948,10 +2097,8 @@
       <c r="D17" t="n">
         <v>0.008595221578773127</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E17" t="n">
+        <v>0.9858180301774954</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -974,10 +2121,8 @@
       <c r="D18" t="n">
         <v>0.007639076541817352</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0.9867117042471241</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1000,10 +2145,8 @@
       <c r="D19" t="n">
         <v>0.02449149462106488</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0.975429082347625</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1026,10 +2169,8 @@
       <c r="D20" t="n">
         <v>0.0742436218539933</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0.809010267714356</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1052,10 +2193,8 @@
       <c r="D21" t="n">
         <v>0.002159065515365185</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0.9943828592219357</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1078,10 +2217,8 @@
       <c r="D22" t="n">
         <v>0.0264483153300326</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E22" t="n">
+        <v>0.9724925338227106</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1104,10 +2241,8 @@
       <c r="D23" t="n">
         <v>0.002945012739459079</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E23" t="n">
+        <v>0.9937278830185626</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1130,10 +2265,8 @@
       <c r="D24" t="n">
         <v>0.00396944501838891</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E24" t="n">
+        <v>0.9940539151692864</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1156,10 +2289,8 @@
       <c r="D25" t="n">
         <v>0.004286861329211214</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E25" t="n">
+        <v>0.9898177933872823</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1182,10 +2313,8 @@
       <c r="D26" t="n">
         <v>0.007149460162919873</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E26" t="n">
+        <v>0.9928499924323934</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1208,10 +2337,8 @@
       <c r="D27" t="n">
         <v>0.001091133934768554</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E27" t="n">
+        <v>0.9988349276230954</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1234,10 +2361,8 @@
       <c r="D28" t="n">
         <v>0.001220424070631498</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E28" t="n">
+        <v>0.9827367148295149</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1260,10 +2385,8 @@
       <c r="D29" t="n">
         <v>0.0002571339455028229</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E29" t="n">
+        <v>0.9995846289142715</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1286,10 +2409,8 @@
       <c r="D30" t="n">
         <v>0.003095812061568719</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E30" t="n">
+        <v>0.9958062774739258</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1312,10 +2433,8 @@
       <c r="D31" t="n">
         <v>0.001404220996314209</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E31" t="n">
+        <v>0.998456266148075</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1338,10 +2457,8 @@
       <c r="D32" t="n">
         <v>0.004339662070948161</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E32" t="n">
+        <v>0.995651261859215</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1364,10 +2481,8 @@
       <c r="D33" t="n">
         <v>0.009380237683490843</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E33" t="n">
+        <v>0.9906195492023884</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1390,10 +2505,8 @@
       <c r="D34" t="n">
         <v>0.002167557177942273</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E34" t="n">
+        <v>0.9978260978419118</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1416,10 +2529,8 @@
       <c r="D35" t="n">
         <v>0.001270506718439247</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E35" t="n">
+        <v>0.9987150269866678</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1442,10 +2553,8 @@
       <c r="D36" t="n">
         <v>0.00168132695273534</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E36" t="n">
+        <v>0.9982318831912752</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1468,10 +2577,8 @@
       <c r="D37" t="n">
         <v>0.008068757509835298</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E37" t="n">
+        <v>0.991868066029958</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1494,10 +2601,8 @@
       <c r="D38" t="n">
         <v>0.001328333383819348</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E38" t="n">
+        <v>0.9986579128921647</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1520,10 +2625,8 @@
       <c r="D39" t="n">
         <v>0.000907621655203249</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E39" t="n">
+        <v>0.9990668056314862</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1546,10 +2649,8 @@
       <c r="D40" t="n">
         <v>0.0004184822694766979</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E40" t="n">
+        <v>0.9994288184262514</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1572,10 +2673,8 @@
       <c r="D41" t="n">
         <v>0.001182230240065175</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E41" t="n">
+        <v>0.99879707007803</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1598,10 +2697,8 @@
       <c r="D42" t="n">
         <v>0.0003030137617686961</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E42" t="n">
+        <v>0.9995078048815552</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1624,10 +2721,8 @@
       <c r="D43" t="n">
         <v>0.001716451769474074</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E43" t="n">
+        <v>0.9982655843359766</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1650,10 +2745,8 @@
       <c r="D44" t="n">
         <v>0.001742066376813648</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E44" t="n">
+        <v>0.9982334415087967</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1676,10 +2769,8 @@
       <c r="D45" t="n">
         <v>0.0007222517881602133</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E45" t="n">
+        <v>0.9992103337434749</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1702,10 +2793,8 @@
       <c r="D46" t="n">
         <v>5.674461734987449e-05</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E46" t="n">
+        <v>0.9996747239187965</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1728,10 +2817,8 @@
       <c r="D47" t="n">
         <v>0.001304875118948469</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E47" t="n">
+        <v>0.9986691388683364</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1754,10 +2841,8 @@
       <c r="D48" t="n">
         <v>0.002648520562561059</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E48" t="n">
+        <v>0.9973207000441184</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1780,10 +2865,8 @@
       <c r="D49" t="n">
         <v>0.0002151765636219287</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E49" t="n">
+        <v>0.9995744657385476</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1806,10 +2889,8 @@
       <c r="D50" t="n">
         <v>0.004113506625413095</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E50" t="n">
+        <v>0.9957285257035765</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1832,10 +2913,8 @@
       <c r="D51" t="n">
         <v>0.0001017802531653681</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E51" t="n">
+        <v>0.9997255005735197</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1858,10 +2937,8 @@
       <c r="D52" t="n">
         <v>0.000477718167994499</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E52" t="n">
+        <v>0.999358802380708</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1884,10 +2961,8 @@
       <c r="D53" t="n">
         <v>0.001625716442611417</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E53" t="n">
+        <v>0.9980839834955483</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1910,10 +2985,8 @@
       <c r="D54" t="n">
         <v>0.0008465354984875825</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E54" t="n">
+        <v>0.9990326779584395</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1936,10 +3009,8 @@
       <c r="D55" t="n">
         <v>0.003745823307525001</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E55" t="n">
+        <v>0.9940073918895604</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1962,10 +3033,8 @@
       <c r="D56" t="n">
         <v>0.001197740488416458</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E56" t="n">
+        <v>0.9986171357857478</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1988,10 +3057,8 @@
       <c r="D57" t="n">
         <v>0.0008800393380765663</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E57" t="n">
+        <v>0.9991060263022409</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2014,10 +3081,8 @@
       <c r="D58" t="n">
         <v>0.001336783100347566</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E58" t="n">
+        <v>0.9985178847594244</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2040,10 +3105,8 @@
       <c r="D59" t="n">
         <v>0.0006103957155539394</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E59" t="n">
+        <v>0.9990614503940541</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2066,10 +3129,8 @@
       <c r="D60" t="n">
         <v>3.803230475841742e-07</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E60" t="n">
+        <v>0.9987609536133959</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2092,10 +3153,8 @@
       <c r="D61" t="n">
         <v>1.55693170448393e-06</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E61" t="n">
+        <v>0.9983712306827516</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2118,10 +3177,8 @@
       <c r="D62" t="n">
         <v>2.019232420649922e-06</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E62" t="n">
+        <v>0.9985679130577908</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2144,10 +3201,8 @@
       <c r="D63" t="n">
         <v>1.698434848082436e-07</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E63" t="n">
+        <v>0.9994285175310821</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2170,10 +3225,8 @@
       <c r="D64" t="n">
         <v>1.686598758155756e-06</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E64" t="n">
+        <v>0.9999219741945521</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2196,10 +3249,8 @@
       <c r="D65" t="n">
         <v>1.257527509611228e-06</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E65" t="n">
+        <v>0.999458771404484</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2222,10 +3273,8 @@
       <c r="D66" t="n">
         <v>2.335569273749343e-07</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E66" t="n">
+        <v>0.99858311354781</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2248,10 +3297,8 @@
       <c r="D67" t="n">
         <v>1.870586245454965e-07</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E67" t="n">
+        <v>0.9994139339237708</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2274,10 +3321,8 @@
       <c r="D68" t="n">
         <v>3.376073272403734e-05</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0.9985883968114697</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2300,10 +3345,8 @@
       <c r="D69" t="n">
         <v>1.222563086822349e-05</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E69" t="n">
+        <v>0.9999689233618611</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2326,10 +3369,8 @@
       <c r="D70" t="n">
         <v>3.257715419814385e-05</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E70" t="n">
+        <v>0.9997385247432552</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2352,10 +3393,8 @@
       <c r="D71" t="n">
         <v>2.476353974286342e-05</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E71" t="n">
+        <v>0.9998542546034674</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2378,10 +3417,8 @@
       <c r="D72" t="n">
         <v>8.329075402872896e-07</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E72" t="n">
+        <v>0.9995958043409581</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2404,10 +3441,8 @@
       <c r="D73" t="n">
         <v>8.647412976103424e-06</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E73" t="n">
+        <v>0.9999778843058129</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2430,10 +3465,8 @@
       <c r="D74" t="n">
         <v>0.4772580401090223</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E74" t="n">
+        <v>0.5227419597877307</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2456,10 +3489,8 @@
       <c r="D75" t="n">
         <v>4.671276690396968e-08</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E75" t="n">
+        <v>0.9963342383199111</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2482,10 +3513,8 @@
       <c r="D76" t="n">
         <v>5.036377078440357e-05</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E76" t="n">
+        <v>0.999176436307762</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2508,10 +3537,8 @@
       <c r="D77" t="n">
         <v>4.791984987133834e-06</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E77" t="n">
+        <v>0.9980954392472922</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2534,10 +3561,8 @@
       <c r="D78" t="n">
         <v>1.344240207586343e-07</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E78" t="n">
+        <v>0.9989752885957682</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2560,10 +3585,8 @@
       <c r="D79" t="n">
         <v>9.837572697519606e-06</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E79" t="n">
+        <v>0.9951786319181083</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2586,10 +3609,8 @@
       <c r="D80" t="n">
         <v>1.764164091698133e-06</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E80" t="n">
+        <v>0.9991633242344612</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2612,10 +3633,8 @@
       <c r="D81" t="n">
         <v>5.026339048022492e-07</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E81" t="n">
+        <v>0.9987448464029093</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2638,10 +3657,8 @@
       <c r="D82" t="n">
         <v>1.463789390344607e-07</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E82" t="n">
+        <v>0.9987343082379454</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2664,10 +3681,8 @@
       <c r="D83" t="n">
         <v>7.108575448660982e-07</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E83" t="n">
+        <v>0.9979252687293009</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2690,10 +3705,8 @@
       <c r="D84" t="n">
         <v>1.497258743112615e-07</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E84" t="n">
+        <v>0.9988693700647014</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2716,10 +3729,8 @@
       <c r="D85" t="n">
         <v>1.543708856406464e-07</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E85" t="n">
+        <v>0.9989907696026885</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2742,10 +3753,8 @@
       <c r="D86" t="n">
         <v>1.060192177897398e-06</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E86" t="n">
+        <v>0.9984807925823881</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2768,10 +3777,8 @@
       <c r="D87" t="n">
         <v>9.139157363556907e-08</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E87" t="n">
+        <v>0.9985300457532635</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2794,10 +3801,8 @@
       <c r="D88" t="n">
         <v>1.372924948408741e-06</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E88" t="n">
+        <v>0.9984116695410403</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2820,10 +3825,8 @@
       <c r="D89" t="n">
         <v>7.501954641159987e-09</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E89" t="n">
+        <v>0.9996035062039016</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2846,10 +3849,8 @@
       <c r="D90" t="n">
         <v>5.9471694216575e-07</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E90" t="n">
+        <v>0.9996278786780619</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2872,10 +3873,8 @@
       <c r="D91" t="n">
         <v>5.54774591197861e-08</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E91" t="n">
+        <v>0.9985529973441211</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2898,10 +3897,8 @@
       <c r="D92" t="n">
         <v>0.008641369238994924</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E92" t="n">
+        <v>0.9906300724133099</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2924,10 +3921,8 @@
       <c r="D93" t="n">
         <v>0.001958661984150325</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E93" t="n">
+        <v>0.9968562513117617</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2950,10 +3945,8 @@
       <c r="D94" t="n">
         <v>0.002629729139622479</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E94" t="n">
+        <v>0.9973698456766344</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2976,10 +3969,8 @@
       <c r="D95" t="n">
         <v>0.001695557515074338</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E95" t="n">
+        <v>0.9982722542766842</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3002,10 +3993,8 @@
       <c r="D96" t="n">
         <v>0.0009107230389296079</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E96" t="n">
+        <v>0.9989840194938904</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3028,10 +4017,8 @@
       <c r="D97" t="n">
         <v>0.00144266472709364</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E97" t="n">
+        <v>0.9984766116921103</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3054,10 +4041,8 @@
       <c r="D98" t="n">
         <v>0.00311742191011826</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E98" t="n">
+        <v>0.9966759191839826</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3080,10 +4065,8 @@
       <c r="D99" t="n">
         <v>0.001545856576580359</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E99" t="n">
+        <v>0.9968404771621374</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3106,10 +4089,8 @@
       <c r="D100" t="n">
         <v>0.002465646287145277</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E100" t="n">
+        <v>0.9974731973340872</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3132,10 +4113,8 @@
       <c r="D101" t="n">
         <v>0.006001633111255855</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E101" t="n">
+        <v>0.9939975407144144</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3158,10 +4137,8 @@
       <c r="D102" t="n">
         <v>0.006206601026335494</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E102" t="n">
+        <v>0.9937920023240201</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3184,10 +4161,8 @@
       <c r="D103" t="n">
         <v>0.01574089843819273</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E103" t="n">
+        <v>0.9838686268249109</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3210,10 +4185,8 @@
       <c r="D104" t="n">
         <v>0.003542155826296925</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E104" t="n">
+        <v>0.9952190227786176</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3236,10 +4209,8 @@
       <c r="D105" t="n">
         <v>0.002924238240041831</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E105" t="n">
+        <v>0.9959022289778555</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3262,10 +4233,8 @@
       <c r="D106" t="n">
         <v>0.002375220680007254</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E106" t="n">
+        <v>0.9952634565117038</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3288,10 +4257,8 @@
       <c r="D107" t="n">
         <v>0.002717876540560141</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E107" t="n">
+        <v>0.9950891315755142</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3314,10 +4281,8 @@
       <c r="D108" t="n">
         <v>0.0006912757512237115</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E108" t="n">
+        <v>0.99721241328564</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3340,10 +4305,8 @@
       <c r="D109" t="n">
         <v>0.0004317891586989482</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E109" t="n">
+        <v>0.9975340227176668</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3366,10 +4329,8 @@
       <c r="D110" t="n">
         <v>0.0007664528733508605</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E110" t="n">
+        <v>0.9980035801608806</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3392,10 +4353,8 @@
       <c r="D111" t="n">
         <v>0.001000426521208195</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E111" t="n">
+        <v>0.9974051915415234</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3418,10 +4377,8 @@
       <c r="D112" t="n">
         <v>0.004105114471453726</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E112" t="n">
+        <v>0.9948655389644301</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3444,10 +4401,8 @@
       <c r="D113" t="n">
         <v>0.0006555277920360453</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E113" t="n">
+        <v>0.9983873917798405</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3470,10 +4425,8 @@
       <c r="D114" t="n">
         <v>0.0006160356489221824</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E114" t="n">
+        <v>0.9977512273008069</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3496,10 +4449,8 @@
       <c r="D115" t="n">
         <v>0.001825541871103088</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E115" t="n">
+        <v>0.9969917043269589</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3522,10 +4473,8 @@
       <c r="D116" t="n">
         <v>0.001440500999292417</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E116" t="n">
+        <v>0.9973102307409567</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3548,10 +4497,8 @@
       <c r="D117" t="n">
         <v>0.0003345557766274338</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E117" t="n">
+        <v>0.9952248272405615</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3574,10 +4521,8 @@
       <c r="D118" t="n">
         <v>0.001272987234000484</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E118" t="n">
+        <v>0.9976572644726422</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3600,10 +4545,8 @@
       <c r="D119" t="n">
         <v>0.0006439852475917306</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E119" t="n">
+        <v>0.9983961725988643</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3626,10 +4569,8 @@
       <c r="D120" t="n">
         <v>0.006200721135637927</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E120" t="n">
+        <v>0.9910306572964818</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3652,10 +4593,8 @@
       <c r="D121" t="n">
         <v>0.01060502458902768</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E121" t="n">
+        <v>0.9837518339657405</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3678,10 +4617,8 @@
       <c r="D122" t="n">
         <v>0.002363811138343348</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E122" t="n">
+        <v>0.9966375328354065</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3704,10 +4641,8 @@
       <c r="D123" t="n">
         <v>0.003606855843130717</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E123" t="n">
+        <v>0.9956509679753976</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3730,10 +4665,8 @@
       <c r="D124" t="n">
         <v>0.007196975297743671</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E124" t="n">
+        <v>0.9916135609920451</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3756,10 +4689,8 @@
       <c r="D125" t="n">
         <v>0.009748098705839852</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E125" t="n">
+        <v>0.9900676537381626</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3782,10 +4713,8 @@
       <c r="D126" t="n">
         <v>0.007520327452053664</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E126" t="n">
+        <v>0.9917891415682308</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3808,10 +4737,8 @@
       <c r="D127" t="n">
         <v>0.1676517191010408</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E127" t="n">
+        <v>0.8246093784699345</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3834,10 +4761,8 @@
       <c r="D128" t="n">
         <v>0.02169235428132547</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E128" t="n">
+        <v>0.9782195857976241</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3860,10 +4785,8 @@
       <c r="D129" t="n">
         <v>0.004271222482327246</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E129" t="n">
+        <v>0.9901291408821659</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3886,10 +4809,8 @@
       <c r="D130" t="n">
         <v>0.00377446865629496</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E130" t="n">
+        <v>0.9908996053980821</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3912,10 +4833,8 @@
       <c r="D131" t="n">
         <v>0.01103074570844261</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E131" t="n">
+        <v>0.9859787508550768</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3938,10 +4857,8 @@
       <c r="D132" t="n">
         <v>0.0188815892887288</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E132" t="n">
+        <v>0.9791095785676922</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3964,10 +4881,8 @@
       <c r="D133" t="n">
         <v>0.005161871423783419</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E133" t="n">
+        <v>0.9905154275940197</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3990,10 +4905,8 @@
       <c r="D134" t="n">
         <v>0.008356264809582927</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E134" t="n">
+        <v>0.9866594605944103</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4016,10 +4929,8 @@
       <c r="D135" t="n">
         <v>0.008595221578773127</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E135" t="n">
+        <v>0.9858180301774954</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4042,10 +4953,8 @@
       <c r="D136" t="n">
         <v>0.007639076541817352</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E136" t="n">
+        <v>0.9867117042471241</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4068,10 +4977,8 @@
       <c r="D137" t="n">
         <v>0.02449149462106488</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E137" t="n">
+        <v>0.975429082347625</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4094,10 +5001,8 @@
       <c r="D138" t="n">
         <v>0.0742436218539933</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E138" t="n">
+        <v>0.809010267714356</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4120,10 +5025,8 @@
       <c r="D139" t="n">
         <v>0.002159065515365185</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E139" t="n">
+        <v>0.9943828592219357</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4146,10 +5049,8 @@
       <c r="D140" t="n">
         <v>0.0264483153300326</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E140" t="n">
+        <v>0.9724925338227106</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4172,10 +5073,8 @@
       <c r="D141" t="n">
         <v>0.002945012739459079</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E141" t="n">
+        <v>0.9937278830185626</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4198,10 +5097,8 @@
       <c r="D142" t="n">
         <v>0.00396944501838891</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E142" t="n">
+        <v>0.9940539151692864</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4224,10 +5121,8 @@
       <c r="D143" t="n">
         <v>0.004286861329211214</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
+      <c r="E143" t="n">
+        <v>0.9898177933872823</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4240,7 +5135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4277,12 +5172,12 @@
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
           <t>prediction</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
         </is>
       </c>
     </row>
@@ -4301,10 +5196,8 @@
       <c r="D2" t="n">
         <v>0.8605711410450212</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.8605711410450212</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4327,10 +5220,8 @@
       <c r="D3" t="n">
         <v>0.8698821413941278</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.8698821413941278</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4353,14 +5244,12 @@
       <c r="D4" t="n">
         <v>0.3582856499276437</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>0.6417143500720444</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
         </is>
       </c>
     </row>
@@ -4379,10 +5268,8 @@
       <c r="D5" t="n">
         <v>0.9488841258285948</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0.9488841258285948</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4405,10 +5292,8 @@
       <c r="D6" t="n">
         <v>0.7847699307229148</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E6" t="n">
+        <v>0.7847699307229148</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4431,10 +5316,8 @@
       <c r="D7" t="n">
         <v>0.9954872134714012</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E7" t="n">
+        <v>0.9954872134714012</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4457,10 +5340,8 @@
       <c r="D8" t="n">
         <v>0.9950845747464733</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E8" t="n">
+        <v>0.9950845747464733</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4483,10 +5364,8 @@
       <c r="D9" t="n">
         <v>0.6825888639756194</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0.6825888639756194</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4509,10 +5388,8 @@
       <c r="D10" t="n">
         <v>0.9964140067448316</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0.9964140067448316</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4535,10 +5412,8 @@
       <c r="D11" t="n">
         <v>0.9530608627713272</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E11" t="n">
+        <v>0.9530608627713272</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -4561,10 +5436,8 @@
       <c r="D12" t="n">
         <v>0.9962601363483501</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E12" t="n">
+        <v>0.9962601363483501</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -4587,10 +5460,8 @@
       <c r="D13" t="n">
         <v>0.9741426939086832</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E13" t="n">
+        <v>0.9741426939086832</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -4613,10 +5484,8 @@
       <c r="D14" t="n">
         <v>0.9982959348046105</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0.9982959348046105</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -4639,10 +5508,8 @@
       <c r="D15" t="n">
         <v>0.9806894126244933</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0.9806894126244933</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -4665,14 +5532,12 @@
       <c r="D16" t="n">
         <v>0.3043394376371024</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>0.6956605623628753</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
         </is>
       </c>
     </row>
@@ -4691,10 +5556,8 @@
       <c r="D17" t="n">
         <v>0.9945441787309759</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E17" t="n">
+        <v>0.9945441787309759</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -4717,10 +5580,8 @@
       <c r="D18" t="n">
         <v>0.8605711410450212</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0.8605711410450212</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -4743,10 +5604,8 @@
       <c r="D19" t="n">
         <v>0.8698821413941278</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0.8698821413941278</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4769,14 +5628,12 @@
       <c r="D20" t="n">
         <v>0.3582856499276437</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>0.6417143500720444</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
         </is>
       </c>
     </row>
@@ -4795,10 +5652,8 @@
       <c r="D21" t="n">
         <v>0.9488841258285948</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0.9488841258285948</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4821,1193 +5676,12 @@
       <c r="D22" t="n">
         <v>0.7847699307229148</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>0.7847699307229148</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>Row</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_12.fasta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8992455212400672</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.375853402908533e-14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1007544787598391</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8992455212400672</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_14.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9809306737725605</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.735661626752608e-14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01906932622739226</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9809306737725605</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_18.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9827672351622996</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.219851064490665e-14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0172327648376782</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9827672351622996</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_21.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9646961163518113</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.219862939341601e-14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03530388364816649</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9646961163518113</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_24.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.96013193949381</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.21988721770269e-14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03986806050616776</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.96013193949381</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_25.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9747525194399856</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.874582700207757e-14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02524748055998555</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9747525194399856</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_28.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9762342578877273</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.377782031071212e-14</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.02376574211224891</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9762342578877273</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_29.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9160040695546208</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.21999292215657e-14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.08399593044535696</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9160040695546208</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_36.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5349142826191622</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.765601252513957e-12</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4650857173780723</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5349142826191622</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_37.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.3550943791895867</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.878025637744075e-12</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6449056208065354</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6449056208065354</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_39.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.08878754893412964</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.075295387591007e-10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9112124506583409</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9112124506583409</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_7.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.7793920992314384</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.310067679422122e-13</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2206079007682307</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.7793920992314384</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_9.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8601333000159818</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.339868194128355e-14</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1398666999839748</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.8601333000159818</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_0.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9980995728108226</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.219808045715311e-14</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.001900427189155227</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9980995728108226</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_3.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9981947756374553</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.21988944370648e-14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.001805224362522512</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9981947756374553</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_30.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.949693934412602</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.219901831840271e-14</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.05030606558737587</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.949693934412602</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_34.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.2787202076014263</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.220233900912286e-14</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.7212797923985514</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.7212797923985514</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_11.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9989260737339986</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005368510550317373</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0005370752109696499</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9989260737339986</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_13.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.997398654611456</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.001300671424797124</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.00130067396374678</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.997398654611456</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_16.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9980451739290596</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6.201643480470688e-12</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.001954826064738868</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9980451739290596</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_17.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9966138078953733</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.234600811109501e-13</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.003386192104503178</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9966138078953733</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_22.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9988605743653859</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0005568633838118776</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0005825622508021638</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9988605743653859</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_23.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9689970227536899</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2.30345712491634e-13</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.03100297724607981</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9689970227536899</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_19.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9889771013377695</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5.888092394201347e-14</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0110228986621716</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9889771013377695</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_2.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9915632782798296</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.219821950030769e-14</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.008436721720148225</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9915632782798296</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_26.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.9944392227048721</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2.21981661412718e-14</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.005560777295105684</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.9944392227048721</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_27.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.9972786403017403</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2.219812777449372e-14</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.002721359698237614</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.9972786403017403</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_31.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.9311456304368437</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.53647072173758e-12</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.06885436956161979</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.9311456304368437</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_32.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.2102554875521048</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.7581626110773514</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.03158190137054372</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.7581626110773514</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus massiliensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_33.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.05032715292766491</v>
-      </c>
-      <c r="C31" t="n">
-        <v>8.591084272645664e-13</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.949672847071476</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.949672847071476</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_35.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.50404005012596</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2.455889247181647e-14</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.4959599498740155</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.50404005012596</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_4.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.9927744688086589</v>
-      </c>
-      <c r="C33" t="n">
-        <v>7.601851536581034e-13</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.007225531190580906</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.9927744688086589</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_5.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.9934629853932017</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2.134700413979898e-13</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.00653701460658482</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.9934629853932017</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_8.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.9918059693422437</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2.21982149054802e-14</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.008194030657733992</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.9918059693422437</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_12.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.8992455212400672</v>
-      </c>
-      <c r="C36" t="n">
-        <v>9.375853402908533e-14</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1007544787598391</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.8992455212400672</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_14.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.9809306737725605</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.735661626752608e-14</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.01906932622739226</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.9809306737725605</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_18.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.9827672351622996</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2.219851064490665e-14</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.0172327648376782</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.9827672351622996</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_21.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.9646961163518113</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.219862939341601e-14</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.03530388364816649</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.9646961163518113</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_24.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.96013193949381</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.21988721770269e-14</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.03986806050616776</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.96013193949381</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_25.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.9747525194399856</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2.874582700207757e-14</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.02524748055998555</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.9747525194399856</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_28.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.9762342578877273</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2.377782031071212e-14</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.02376574211224891</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.9762342578877273</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_29.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.9160040695546208</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2.21999292215657e-14</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.08399593044535696</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.9160040695546208</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_36.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5349142826191622</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.765601252513957e-12</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.4650857173780723</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5349142826191622</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_37.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.3550943791895867</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.878025637744075e-12</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.6449056208065354</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.6449056208065354</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_39.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.08878754893412964</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4.075295387591007e-10</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.9112124506583409</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.9112124506583409</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus rubiinfantis</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_7.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.7793920992314384</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3.310067679422122e-13</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.2206079007682307</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.7793920992314384</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_65_9.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.8601333000159818</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4.339868194128355e-14</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.1398666999839748</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.8601333000159818</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>s__Anaerotruncus colihominis</t>
         </is>
       </c>
     </row>
